--- a/Fase 1/Evidencias Grupales/Documentos/Requerimientos Garden Store.xlsx
+++ b/Fase 1/Evidencias Grupales/Documentos/Requerimientos Garden Store.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Garden-Store-Capstone\Fase 1\Evidencias Grupales\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6309B53-2EFF-4343-BFDE-C147E2AB884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="345" yWindow="2085" windowWidth="22455" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name=" Requerimientos" sheetId="1" r:id="rId4"/>
+    <sheet name=" Requerimientos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="B0UweHBNTNZFaOmWPX1J3+93zVGSwZ9+Di7YNriMLAw="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="388">
   <si>
     <t>[REQ-Nº]</t>
   </si>
@@ -615,643 +624,617 @@
     <t>REQ-061</t>
   </si>
   <si>
-    <t>Listar Almacenes</t>
-  </si>
-  <si>
-    <t>El sistema listara todos los almacenes que este registrado en la base de datos</t>
+    <t>Obtener un Producto</t>
+  </si>
+  <si>
+    <t>Administrador, Empleado y Usuario</t>
+  </si>
+  <si>
+    <t>El sistema obtendra la información detallada de un producto mediante su identificador unico o ID</t>
   </si>
   <si>
     <t>REQ-062</t>
   </si>
   <si>
-    <t>Crear Almacen</t>
-  </si>
-  <si>
-    <t>El sistema creara un almacen con los datos designados por el Usuarios administrador</t>
+    <t>Listar Subscripciones</t>
+  </si>
+  <si>
+    <t>El sistema listara todas las subscripciones realizadas por los Usuarios</t>
   </si>
   <si>
     <t>REQ-063</t>
   </si>
   <si>
-    <t>Obtener un Almacen</t>
-  </si>
-  <si>
-    <t>El sistema debera obetener la información detalla de un almacen mediante su ID</t>
+    <t>Listar Compras</t>
+  </si>
+  <si>
+    <t>Empleado y Administrador</t>
+  </si>
+  <si>
+    <t>El sistema listara todas las compras realizadas por lo Usuarios administradores, a distintos proveedores que se hayan designado</t>
   </si>
   <si>
     <t>REQ-064</t>
   </si>
   <si>
-    <t>Listar Productos en Almacen</t>
-  </si>
-  <si>
-    <t>El sistema listara todos los productos que esten registrados o almacendos dentro de un almacen de la sucursal</t>
+    <t>Crear Compra</t>
+  </si>
+  <si>
+    <t>El sistema creara una compra con los datos que haya designado el Usuario administrador</t>
   </si>
   <si>
     <t>REQ-065</t>
   </si>
   <si>
-    <t>Obtener un Producto</t>
-  </si>
-  <si>
-    <t>Administrador, Empleado y Usuario</t>
-  </si>
-  <si>
-    <t>El sistema obtendra la información detallada de un producto mediante su identificador unico o ID</t>
+    <t>Suma total del precio</t>
+  </si>
+  <si>
+    <t>El sistema sumara el precio total de la cantidad de productos que tiene el carrito del Usuario</t>
   </si>
   <si>
     <t>REQ-066</t>
   </si>
   <si>
-    <t>Listar Subscripciones</t>
-  </si>
-  <si>
-    <t>El sistema listara todas las subscripciones realizadas por los Usuarios</t>
+    <t>Permisos por roles</t>
+  </si>
+  <si>
+    <t>Para poder acceder a ciertas funcionalidades del sistema se necesita un rol en especifico</t>
   </si>
   <si>
     <t>REQ-067</t>
   </si>
   <si>
-    <t>Listar Compras</t>
-  </si>
-  <si>
-    <t>Empleado y Administrador</t>
-  </si>
-  <si>
-    <t>El sistema listara todas las compras realizadas por lo Usuarios administradores, a distintos proveedores que se hayan designado</t>
+    <t>Agregar Productos a una Sucursal</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>El sistema creara un registro de almacenamiento de productos en el almacen local de la sucursal</t>
   </si>
   <si>
     <t>REQ-068</t>
   </si>
   <si>
-    <t>Crear Compra</t>
-  </si>
-  <si>
-    <t>El sistema creara una compra con los datos que haya designado el Usuario administrador</t>
+    <t>Seguimiento de Pedido</t>
+  </si>
+  <si>
+    <t>El sistema tendra un seguimiento del pedido en tiempo real</t>
   </si>
   <si>
     <t>REQ-069</t>
   </si>
   <si>
-    <t>Suma total del precio</t>
-  </si>
-  <si>
-    <t>El sistema sumara el precio total de la cantidad de productos que tiene el carrito del Usuario</t>
+    <t>Generar Boleta</t>
+  </si>
+  <si>
+    <t>Usuario y Sistema</t>
+  </si>
+  <si>
+    <t>El sistema al momento de que un Usuario confirme su compra generara una boleta como registro de la compra realizada</t>
   </si>
   <si>
     <t>REQ-070</t>
   </si>
   <si>
-    <t>Permisos por roles</t>
-  </si>
-  <si>
-    <t>Para poder acceder a ciertas funcionalidades del sistema se necesita un rol en especifico</t>
+    <t>Crear Informe de Ventas</t>
+  </si>
+  <si>
+    <t>El sistema generara un informe en formato pdf con datos de las ventas anuales, semanales o mensuales</t>
   </si>
   <si>
     <t>REQ-071</t>
   </si>
   <si>
-    <t>Agregar Productos a una Sucursal</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>El sistema creara un registro de almacenamiento de productos en el almacen local de la sucursal</t>
+    <t>Devolucion del Pago</t>
+  </si>
+  <si>
+    <t>El sistema devolvera el pago que se realizo cuando el Usuario haya cancelado su compra</t>
   </si>
   <si>
     <t>REQ-072</t>
   </si>
   <si>
-    <t>Seguimiento de Pedido</t>
-  </si>
-  <si>
-    <t>El sistema tendra un seguimiento del pedido en tiempo real</t>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>El sistema enviara notificaciones a travez de correo electronico a los Usuarios</t>
   </si>
   <si>
     <t>REQ-073</t>
   </si>
   <si>
-    <t>Generar Boleta</t>
-  </si>
-  <si>
-    <t>Usuario y Sistema</t>
-  </si>
-  <si>
-    <t>El sistema al momento de que un Usuario confirme su compra generara una boleta como registro de la compra realizada</t>
+    <t>Generar Informe Venta Mensual</t>
+  </si>
+  <si>
+    <t>El administrador podra generar un informe en formato pdf de las ventas mensuales realizadas</t>
   </si>
   <si>
     <t>REQ-074</t>
   </si>
   <si>
-    <t>Crear Informe de Ventas</t>
-  </si>
-  <si>
-    <t>El sistema generara un informe en formato pdf con datos de las ventas anuales, semanales o mensuales</t>
+    <t>Calcular Monto Neto</t>
+  </si>
+  <si>
+    <t>El sistema calculara el monto neto total de una compra</t>
   </si>
   <si>
     <t>REQ-075</t>
   </si>
   <si>
-    <t>Cancelar Factura</t>
-  </si>
-  <si>
-    <t>Vendedor y Sistema</t>
-  </si>
-  <si>
-    <t>El sistema cambiara el estado de la factura a cancelado</t>
+    <t>Generar Garantia</t>
+  </si>
+  <si>
+    <t>Sistema y Empleado</t>
+  </si>
+  <si>
+    <t>El vendedor generara una garantia al momento de que un Usuario genere una compra de un producto</t>
   </si>
   <si>
     <t>REQ-076</t>
   </si>
   <si>
-    <t>Devolucion del Pago</t>
-  </si>
-  <si>
-    <t>El sistema devolvera el pago que se realizo cuando el Usuario haya cancelado su compra</t>
+    <t>Descuento por Compra de Articulos</t>
+  </si>
+  <si>
+    <t>Cuando el Usuario compra 5 productos en nuestro sitio web obtendra un 5% de descuentos en nuestros productos</t>
   </si>
   <si>
     <t>REQ-077</t>
   </si>
   <si>
-    <t>Notificaciones</t>
-  </si>
-  <si>
-    <t>El sistema enviara notificaciones a travez de correo electronico a los Usuarios</t>
+    <t>Crear Usuario</t>
+  </si>
+  <si>
+    <t>Sistema y Administrador</t>
+  </si>
+  <si>
+    <t>El administrador podra crear o generar Usuarios con su nombre, apellido, correo y contraseña</t>
   </si>
   <si>
     <t>REQ-078</t>
   </si>
   <si>
-    <t>Generar Informe Venta Mensual</t>
-  </si>
-  <si>
-    <t>El administrador podra generar un informe en formato pdf de las ventas mensuales realizadas</t>
+    <t>Generar Informe Desempeño de Sucursal</t>
+  </si>
+  <si>
+    <t>El administrador generara un informe de desempeño de las sucursales</t>
   </si>
   <si>
     <t>REQ-079</t>
   </si>
   <si>
-    <t>Calcular Monto Neto</t>
-  </si>
-  <si>
-    <t>El sistema calculara el monto neto total de una compra</t>
+    <t>Listar Productos en Alamacen de Sucursal</t>
+  </si>
+  <si>
+    <t>El sistema listara todos los productos que estan en el almacen de una sucursal</t>
   </si>
   <si>
     <t>REQ-080</t>
   </si>
   <si>
-    <t>Generar Garantia</t>
-  </si>
-  <si>
-    <t>Sistema y Empleado</t>
-  </si>
-  <si>
-    <t>El vendedor generara una garantia al momento de que un Usuario genere una compra de un producto</t>
+    <t>Actualizar Productos en Almacen de Sucursal</t>
+  </si>
+  <si>
+    <t>Sistema y Vendedor</t>
+  </si>
+  <si>
+    <t>El sistema actualizara el stock disponible de los productos almacenados en el almacen local de la sucursal</t>
   </si>
   <si>
     <t>REQ-081</t>
   </si>
   <si>
-    <t>Descuento por Compra de Articulos</t>
-  </si>
-  <si>
-    <t>Cuando el Usuario compra 5 productos en nuestro sitio web obtendra un 5% de descuentos en nuestros productos</t>
+    <t>Tiempo de Vida de Token</t>
+  </si>
+  <si>
+    <t>Los token de autenticacion tendra un tiempo de vida no mas de 30 minutos</t>
   </si>
   <si>
     <t>REQ-082</t>
   </si>
   <si>
-    <t>Crear Usuario</t>
-  </si>
-  <si>
-    <t>Sistema y Administrador</t>
-  </si>
-  <si>
-    <t>El administrador podra crear o generar Usuarios con su nombre, apellido, correo y contraseña</t>
+    <t>Validar Garantia</t>
+  </si>
+  <si>
+    <t>El sistema valirada el tiempo de garantia de los productos que son devueltos</t>
   </si>
   <si>
     <t>REQ-083</t>
   </si>
   <si>
-    <t>Generar Informe Desempeño de Sucursal</t>
-  </si>
-  <si>
-    <t>El administrador generara un informe de desempeño de las sucursales</t>
+    <t>Crear una Reseña</t>
+  </si>
+  <si>
+    <t>El Usuario creara una reseña a un producto, indicando una reseña de con estrellas y un comentario</t>
   </si>
   <si>
     <t>REQ-084</t>
   </si>
   <si>
-    <t>Listar Productos en Alamacen de Sucursal</t>
-  </si>
-  <si>
-    <t>El sistema listara todos los productos que estan en el almacen de una sucursal</t>
+    <t>Listar Reseñas</t>
+  </si>
+  <si>
+    <t>El sistema listara todas las reseñas que realizaron los usuarios a distintos productos</t>
   </si>
   <si>
     <t>REQ-085</t>
   </si>
   <si>
-    <t>Actualizar Productos en Almacen de Sucursal</t>
-  </si>
-  <si>
-    <t>Sistema y Vendedor</t>
-  </si>
-  <si>
-    <t>El sistema actualizara el stock disponible de los productos almacenados en el almacen local de la sucursal</t>
+    <t>Modificar una Reseña</t>
+  </si>
+  <si>
+    <t>El sistema debera modificar una reseña mediante el identificador unico, con la informacion cambiada por el usuario</t>
   </si>
   <si>
     <t>REQ-086</t>
   </si>
   <si>
-    <t>Tiempo de Vida de Token</t>
-  </si>
-  <si>
-    <t>Los token de autenticacion tendra un tiempo de vida no mas de 30 minutos</t>
+    <t xml:space="preserve">Calcular Ingresos Totales </t>
+  </si>
+  <si>
+    <t>El sistema realizara un calculo de los ingresos totales de los productos que han comprado</t>
   </si>
   <si>
     <t>REQ-087</t>
   </si>
   <si>
-    <t>Validar Garantia</t>
-  </si>
-  <si>
-    <t>El sistema valirada el tiempo de garantia de los productos que son devueltos</t>
+    <t>Sistema de Paginación de Productos</t>
+  </si>
+  <si>
+    <t>El sistema mandara una lista con un limite de productos con un sistema de paginación</t>
   </si>
   <si>
     <t>REQ-088</t>
   </si>
   <si>
-    <t>Crear una Reseña</t>
-  </si>
-  <si>
-    <t>El Usuario creara una reseña a un producto, indicando una reseña de con estrellas y un comentario</t>
+    <t>Restar Stock de Producto en Sucursal</t>
+  </si>
+  <si>
+    <t>El administrador en base a un formulario indicara el producto que sera restado o actualizado su stock que esta en una sucursal</t>
   </si>
   <si>
     <t>REQ-089</t>
   </si>
   <si>
-    <t>Listar Reseñas</t>
-  </si>
-  <si>
-    <t>El sistema listara todas las reseñas que realizaron los usuarios a distintos productos</t>
+    <t>Calcular Promedio de Ventas</t>
+  </si>
+  <si>
+    <t>El sistema realizara un calculo sacando el promedio del total de productos que han sido comprados y los mas comprados</t>
   </si>
   <si>
     <t>REQ-090</t>
   </si>
   <si>
-    <t>Modificar una Reseña</t>
-  </si>
-  <si>
-    <t>El sistema debera modificar una reseña mediante el identificador unico, con la informacion cambiada por el usuario</t>
+    <t>Crear Empleado</t>
+  </si>
+  <si>
+    <t>El sistema registrara un empleado con los datos ingresados en la base de datos</t>
   </si>
   <si>
     <t>REQ-091</t>
   </si>
   <si>
-    <t xml:space="preserve">Calcular Ingresos Totales </t>
-  </si>
-  <si>
-    <t>El sistema realizara un calculo de los ingresos totales de los productos que han comprado</t>
+    <t>Listar Empleados</t>
+  </si>
+  <si>
+    <t>El sistema listara todos los empleados que este registrados en la base de datos</t>
   </si>
   <si>
     <t>REQ-092</t>
   </si>
   <si>
-    <t>Sistema de Paginación de Productos</t>
-  </si>
-  <si>
-    <t>El sistema mandara una lista con un limite de productos con un sistema de paginación</t>
+    <t>Editar Empleado</t>
+  </si>
+  <si>
+    <t>El sistema podra editar los datos de un empleado que se haya seleccionado</t>
   </si>
   <si>
     <t>REQ-093</t>
   </si>
   <si>
-    <t>Restar Stock de Producto en Sucursal</t>
-  </si>
-  <si>
-    <t>El administrador en base a un formulario indicara el producto que sera restado o actualizado su stock que esta en una sucursal</t>
+    <t>Detalle Empleado</t>
+  </si>
+  <si>
+    <t>El sistema mostrara detalladamente la información de los empleados</t>
   </si>
   <si>
     <t>REQ-094</t>
   </si>
   <si>
-    <t>Calcular Promedio de Ventas</t>
-  </si>
-  <si>
-    <t>El sistema realizara un calculo sacando el promedio del total de productos que han sido comprados y los mas comprados</t>
+    <t>Mandar Mensaje</t>
+  </si>
+  <si>
+    <t>El sistema debera permitir a los ususarios que puedan mandar mensajes al chatbot</t>
   </si>
   <si>
     <t>REQ-095</t>
   </si>
   <si>
-    <t>Crear Empleado</t>
-  </si>
-  <si>
-    <t>El sistema registrara un empleado con los datos ingresados en la base de datos</t>
+    <t>Resetear Contraseña</t>
+  </si>
+  <si>
+    <t>El sistema tendra la obsion de poder resetear la contraseña, mediante el envio de un correo con un formulario con tiempo de vida limitado</t>
   </si>
   <si>
     <t>REQ-096</t>
   </si>
   <si>
-    <t>Listar Empleados</t>
-  </si>
-  <si>
-    <t>El sistema listara todos los empleados que este registrados en la base de datos</t>
+    <t>Autenticación de dos factores</t>
+  </si>
+  <si>
+    <t>El sistema contara una autenticación de doble factos a todos los Usuarios que sean administradores del sistema, donde se enviara un codigo por via SMS</t>
   </si>
   <si>
     <t>REQ-097</t>
   </si>
   <si>
-    <t>Editar Empleado</t>
-  </si>
-  <si>
-    <t>El sistema podra editar los datos de los empleados</t>
+    <t>Identificación de Transacciones Fraudulentas</t>
+  </si>
+  <si>
+    <t>La plataforma contara con un sistema de validación e identificación de transacciones fraudulentas mediante inteligencia artifical</t>
   </si>
   <si>
     <t>REQ-098</t>
   </si>
   <si>
-    <t>Detalle Empleado</t>
-  </si>
-  <si>
-    <t>El sistema mostrara detalladamente la información de los empleados</t>
+    <t>Escaneo QR</t>
+  </si>
+  <si>
+    <t>La plataforma contara un sistema de Escaneo de QR dimanimo para cada orden de compra realizada por un Usuario</t>
   </si>
   <si>
     <t>REQ-099</t>
   </si>
   <si>
-    <t>Integración de Sistema de Quejas</t>
-  </si>
-  <si>
-    <t>El sistema contara con un chat de ayuda o quejas para que los Usuarios puedan enviar sus quejas o preguntas</t>
+    <t>Validación de Entrega</t>
+  </si>
+  <si>
+    <t>El sistema validara las entregas mediante el Escaneo de QR, comprobando el pedido y el Usuario</t>
   </si>
   <si>
     <t>REQ-100</t>
   </si>
   <si>
-    <t>Mandar Mensaje</t>
-  </si>
-  <si>
-    <t>El sistema debera permitir a los ususarios que puedan mandar mensajes al chatbot</t>
+    <t>Crear Publicación</t>
+  </si>
+  <si>
+    <t>La plataforma permitira a los Usuarios crear una publicación relacionados con la temanica de la jardinería, como consejos, noticias, etc.</t>
   </si>
   <si>
     <t>REQ-101</t>
   </si>
   <si>
-    <t>Resetear Contraseña</t>
-  </si>
-  <si>
-    <t>El sistema tendra la obsion de poder resetear la contraseña, mediante el envio de un correo con un formulario con tiempo de vida limitado</t>
+    <t>Listar Publicaciones</t>
+  </si>
+  <si>
+    <t>El sistema listará todas las publicaciones creadas por los usuarios</t>
   </si>
   <si>
     <t>REQ-102</t>
   </si>
   <si>
-    <t>Autenticación de dos factores</t>
-  </si>
-  <si>
-    <t>El sistema contara una autenticación de doble factos a todos los Usuarios que sean administradores del sistema, donde se enviara un codigo por via SMS</t>
+    <t>Editar Publicación</t>
+  </si>
+  <si>
+    <t>La plataforma permitira a los ususarios editar sus publicaciones con nueva información</t>
   </si>
   <si>
     <t>REQ-103</t>
   </si>
   <si>
-    <t>Identificación de Transacciones Fraudulentas</t>
-  </si>
-  <si>
-    <t>La plataforma contara con un sistema de validación e identificación de transacciones fraudulentas mediante inteligencia artifical</t>
+    <t>Detalle Publicación</t>
+  </si>
+  <si>
+    <t>La plataforma debera permitir mostrar detalladamente información de una publicación</t>
   </si>
   <si>
     <t>REQ-104</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayudante virtual </t>
-  </si>
-  <si>
-    <t>El panel de administrador contara con un asistente virtual integrado para ayudar a la toma de deciciones del negocio</t>
+    <t>Crear Comentario</t>
+  </si>
+  <si>
+    <t>La plataforma permitira a los ususarios registrados crear comentarios en las pulicaciones subidas</t>
   </si>
   <si>
     <t>REQ-105</t>
   </si>
   <si>
-    <t>Escaneo QR</t>
-  </si>
-  <si>
-    <t>La plataforma contara un sistema de Escaneo de QR dimanimo para cada orden de compra realizada por un Usuario</t>
+    <t>Editar Comentario</t>
+  </si>
+  <si>
+    <t>La plataforma permitira a los ususario registrados editar todos sus comentarios que hayan creado</t>
   </si>
   <si>
     <t>REQ-106</t>
   </si>
   <si>
-    <t>Validación de Entrega</t>
-  </si>
-  <si>
-    <t>El sistema validara las entregas mediante el Escaneo de QR, comprobando el pedido y el Usuario</t>
+    <t>Listar Comentarios</t>
+  </si>
+  <si>
+    <t>La plataforma listara todos los comentarios de los usuarios que hayan creado en una publicación</t>
   </si>
   <si>
     <t>REQ-107</t>
   </si>
   <si>
-    <t>Crear Post</t>
-  </si>
-  <si>
-    <t>La plataforma permitira a los Usuarios crear post relacionados con la temanica de la jardinería, como consejos, noticias, etc.</t>
+    <t>Eliminar Comentario</t>
+  </si>
+  <si>
+    <t>La plataforma permitira a los ususarios administradores o staff eliminar los comentarios de los Usuarios</t>
   </si>
   <si>
     <t>REQ-108</t>
   </si>
   <si>
-    <t>Listar Posts</t>
+    <t>Validar Comentario</t>
+  </si>
+  <si>
+    <t>La plataforma tendra que validar los comentarios, con ayuda de los administradores o miembros del staff</t>
   </si>
   <si>
     <t>REQ-109</t>
   </si>
   <si>
-    <t>Editar Posts</t>
-  </si>
-  <si>
-    <t>La plataforma permitira a los ususarios editar sus post</t>
+    <t>Crear Permiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Usuarios administradores podrán crear permisos con distintos accesos a las funcionalidades de la plataforma </t>
   </si>
   <si>
     <t>REQ-110</t>
   </si>
   <si>
-    <t>Detalle Post</t>
-  </si>
-  <si>
-    <t>La plataforma debera permitir mostrar detalladamente información del post</t>
+    <t>Editar Permiso</t>
+  </si>
+  <si>
+    <t>Los Usuarios administradores podrán editar la información de los permisos  y el sistema agregara esas modificaciones</t>
   </si>
   <si>
     <t>REQ-111</t>
   </si>
   <si>
-    <t>Crear Comentario</t>
-  </si>
-  <si>
-    <t>La plataforma permitira a los ususarios registrados crear comentarios en los post</t>
+    <t>Asignar Permiso</t>
+  </si>
+  <si>
+    <t>Los Usuarios administradores podrán asignar los permisos quu este registrados a los Usuarios</t>
   </si>
   <si>
     <t>REQ-112</t>
   </si>
   <si>
-    <t>Editar Comentario</t>
-  </si>
-  <si>
-    <t>La plataforma permitira a los ususario registrados editar todos sus comentarios que hayan creado</t>
+    <t>Listar Permisos</t>
+  </si>
+  <si>
+    <t>El sistema listara todos los permisos registrados por los Usuarios administradores</t>
   </si>
   <si>
     <t>REQ-113</t>
   </si>
   <si>
-    <t>Listar Comentarios</t>
-  </si>
-  <si>
-    <t>La plataforma listara por cada post todos los comentarios de los Usuarios que hayan creado en ese post</t>
+    <t>Exportación PDF</t>
+  </si>
+  <si>
+    <t>El sistema debera tener la opción de exportar la información de escaneo de las transacciones en PDF</t>
   </si>
   <si>
     <t>REQ-114</t>
   </si>
   <si>
-    <t>Eliminar Comentario</t>
-  </si>
-  <si>
-    <t>La plataforma permitira a los ususarios administradores o staff eliminar los comentarios de los Usuarios</t>
+    <t>Activar Cuenta</t>
+  </si>
+  <si>
+    <t>Mediante el envio de un correo al momento de registrarse el Usuario, el sistema debera validar el token y uuid de activacion, posteriormente activar la cuenta del Usuario</t>
   </si>
   <si>
     <t>REQ-115</t>
   </si>
   <si>
-    <t>Validar Comentario</t>
-  </si>
-  <si>
-    <t>La plataforma tendra que validar los comentarios, con ayuda de los administradores o miembros del staff</t>
+    <t>Crear Rol</t>
+  </si>
+  <si>
+    <t>El sistema creara un rol con los datos designados por el usuario administrador</t>
   </si>
   <si>
     <t>REQ-116</t>
   </si>
   <si>
-    <t>Crear Permiso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Usuarios administradores podrán crear permisos con distintos accesos a las funcionalidades de la plataforma </t>
+    <t>Listar Roles</t>
+  </si>
+  <si>
+    <t>El sistema listara todos los roles que esten registrados en la base de datos</t>
   </si>
   <si>
     <t>REQ-117</t>
   </si>
   <si>
-    <t>Editar Permiso</t>
-  </si>
-  <si>
-    <t>Los Usuarios administradores podrán editar la información de los permisos  y el sistema agregara esas modificaciones</t>
+    <t>Modificar Rol</t>
+  </si>
+  <si>
+    <t>el sistema modificara un rol mediante el identificador unico, con la informacion cambiada o modificada por el usuario administrador</t>
   </si>
   <si>
     <t>REQ-118</t>
   </si>
   <si>
-    <t>Asignar Permiso</t>
-  </si>
-  <si>
-    <t>Los Usuarios administradores podrán asignar los permisos quu este registrados a los Usuarios</t>
+    <t>Hashear las contraseñas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las contraseñas se guardaran hasheadas en la base de datos </t>
   </si>
   <si>
     <t>REQ-119</t>
   </si>
   <si>
-    <t>Listar Permisos</t>
-  </si>
-  <si>
-    <t>El sistema listara todos los permisos registrados por los Usuarios administradores</t>
+    <t>Listar Transacciones</t>
+  </si>
+  <si>
+    <t>El sistema listara todas las transacciones que hayan realizados los usuarios en el sistema</t>
   </si>
   <si>
     <t>REQ-120</t>
   </si>
   <si>
-    <t>Exportación PDF</t>
-  </si>
-  <si>
-    <t>El sistema debera tener la opción de exportar la información de escaneo de las transacciones en PDF</t>
+    <t>Generar Token de Acceso</t>
+  </si>
+  <si>
+    <t>El sistema generara un token de acceso mediante Json Web Token, para permitir la autenticación de los usuarios</t>
   </si>
   <si>
     <t>REQ-121</t>
   </si>
   <si>
-    <t>Activar Cuenta</t>
-  </si>
-  <si>
-    <t>Mediante el envio de un correo al momento de registrarse el Usuario, el sistema debera validar el token y uuid de activacion, posteriormente activar la cuenta del Usuario</t>
-  </si>
-  <si>
-    <t>REQ-122</t>
-  </si>
-  <si>
-    <t>Crear Rol</t>
-  </si>
-  <si>
-    <t>El sistema creara un rol con los datos designados por el usuario administrador</t>
-  </si>
-  <si>
-    <t>REQ-123</t>
-  </si>
-  <si>
-    <t>Listar Roles</t>
-  </si>
-  <si>
-    <t>El sistema listara todos los roles que esten registrados en la base de datos</t>
-  </si>
-  <si>
-    <t>REQ-124</t>
-  </si>
-  <si>
-    <t>Modificar Rol</t>
-  </si>
-  <si>
-    <t>el sistema modificara un rol mediante el identificador unico, con la informacion cambiada o modificada por el usuario administrador</t>
+    <t>Generar Token de Refresco</t>
+  </si>
+  <si>
+    <t>El sistema generara un token de refresco mediante Json Web Token, para la actualización de la sesión del usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
@@ -1261,7 +1244,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1277,7 +1260,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1291,6 +1280,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1299,19 +1289,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1321,11 +1317,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1337,116 +1338,103 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1636,30 +1624,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.43"/>
-    <col customWidth="1" min="2" max="2" width="15.71"/>
-    <col customWidth="1" min="3" max="3" width="44.71"/>
-    <col customWidth="1" min="4" max="4" width="30.71"/>
-    <col customWidth="1" min="5" max="5" width="21.29"/>
-    <col customWidth="1" min="6" max="6" width="60.57"/>
-    <col customWidth="1" min="7" max="7" width="15.0"/>
-    <col customWidth="1" min="8" max="26" width="10.71"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.0" customHeight="1">
+    <row r="1" spans="2:7" ht="39" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,27 +1669,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="33.0" customHeight="1">
+    <row r="2" spans="2:7" ht="33" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="31.5">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1709,17 +1699,17 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="31.5">
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1729,17 +1719,17 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="32.25" customHeight="1">
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="32.25" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1749,17 +1739,17 @@
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="47.25">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1769,77 +1759,77 @@
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="31.5">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="31.5">
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" customHeight="1">
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28.5" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="31.5">
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
@@ -1849,18 +1839,18 @@
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="30.75" customHeight="1">
-      <c r="B11" s="4" t="s">
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1869,18 +1859,18 @@
       <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="31.5">
+      <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1889,18 +1879,18 @@
       <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="31.5">
+      <c r="B13" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1909,18 +1899,18 @@
       <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="31.5">
+      <c r="B14" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1929,18 +1919,18 @@
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:7" ht="31.5">
+      <c r="B15" s="27" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1949,38 +1939,38 @@
       <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:7" ht="31.5">
+      <c r="B16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B17" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1989,18 +1979,18 @@
       <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" ht="31.5" customHeight="1">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B18" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2009,18 +1999,18 @@
       <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" ht="32.25" customHeight="1">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B19" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2029,18 +2019,18 @@
       <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:7" ht="30">
+      <c r="B20" s="27" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2049,18 +2039,18 @@
       <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" ht="30.0" customHeight="1">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:7" ht="30" customHeight="1">
+      <c r="B21" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2069,2099 +2059,2042 @@
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="32.25" customHeight="1">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="31.5" customHeight="1">
-      <c r="B23" s="4" t="s">
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B23" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="32.25" customHeight="1">
-      <c r="B24" s="4" t="s">
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B24" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="30.75" customHeight="1">
-      <c r="B25" s="4" t="s">
+      <c r="G24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B25" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="31.5" customHeight="1">
-      <c r="B26" s="4" t="s">
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B26" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="31.5" customHeight="1">
-      <c r="B27" s="4" t="s">
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B27" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="32.25" customHeight="1">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B28" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" ht="29.25" customHeight="1">
-      <c r="B29" s="4" t="s">
+      <c r="G28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="29.25" customHeight="1">
+      <c r="B29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="32.25" customHeight="1">
-      <c r="B30" s="4" t="s">
+      <c r="G29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B30" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="32.25" customHeight="1">
-      <c r="B31" s="4" t="s">
+      <c r="G30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B31" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="31.5" customHeight="1">
-      <c r="B32" s="4" t="s">
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B32" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="4" t="s">
+      <c r="G32" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B33" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" ht="31.5" customHeight="1">
-      <c r="B34" s="4" t="s">
+      <c r="G33" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B34" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" ht="32.25" customHeight="1">
-      <c r="B35" s="4" t="s">
+      <c r="G34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="27.75" customHeight="1">
+      <c r="B35" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" ht="29.25" customHeight="1">
-      <c r="B36" s="4" t="s">
+      <c r="G35" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="29.25" customHeight="1">
+      <c r="B36" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="21" t="s">
         <v>120</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" ht="31.5" customHeight="1">
-      <c r="B37" s="4" t="s">
+      <c r="G36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B37" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="32.25" customHeight="1">
-      <c r="B38" s="4" t="s">
+      <c r="G37" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B38" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="14" t="s">
         <v>126</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" ht="33.0" customHeight="1">
-      <c r="B39" s="4" t="s">
+      <c r="G38" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="33" customHeight="1">
+      <c r="B39" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="B40" s="4" t="s">
+      <c r="G39" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="24" customHeight="1">
+      <c r="B40" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="14" t="s">
         <v>132</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" ht="32.25" customHeight="1">
-      <c r="B41" s="4" t="s">
+      <c r="G40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B41" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" ht="32.25" customHeight="1">
-      <c r="B42" s="4" t="s">
+      <c r="G41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B42" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" ht="31.5" customHeight="1">
-      <c r="B43" s="4" t="s">
+      <c r="G42" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B43" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" ht="31.5" customHeight="1">
-      <c r="B44" s="4" t="s">
+      <c r="G43" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B44" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" ht="30.75" customHeight="1">
-      <c r="B45" s="4" t="s">
+      <c r="G44" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B45" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="30.0" customHeight="1">
-      <c r="B46" s="4" t="s">
+      <c r="G45" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="30" customHeight="1">
+      <c r="B46" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" ht="22.5" customHeight="1">
-      <c r="B47" s="4" t="s">
+      <c r="G46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="22.5" customHeight="1">
+      <c r="B47" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="14" t="s">
         <v>154</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" ht="32.25" customHeight="1">
-      <c r="B48" s="4" t="s">
+      <c r="G47" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B48" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="14" t="s">
         <v>157</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c r="B49" s="4" t="s">
+      <c r="G48" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B49" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="14" t="s">
         <v>160</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" ht="31.5" customHeight="1">
-      <c r="B50" s="4" t="s">
+      <c r="G49" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B50" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="14" t="s">
         <v>163</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="4" t="s">
+      <c r="G50" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="14" t="s">
         <v>166</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="31.5" customHeight="1">
-      <c r="B52" s="4" t="s">
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B52" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="14" t="s">
         <v>169</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" ht="30.75" customHeight="1">
-      <c r="B53" s="4" t="s">
+      <c r="G52" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B53" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="14" t="s">
         <v>172</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" ht="30.75" customHeight="1">
-      <c r="B54" s="4" t="s">
+      <c r="G53" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B54" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="14" t="s">
         <v>175</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" ht="45.75" customHeight="1">
-      <c r="B55" s="4" t="s">
+      <c r="G54" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="28.5" customHeight="1">
+      <c r="B55" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" ht="30.75" customHeight="1">
-      <c r="B56" s="4" t="s">
+      <c r="G55" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B56" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="14" t="s">
         <v>181</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" ht="31.5" customHeight="1">
-      <c r="B57" s="4" t="s">
+      <c r="G56" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B57" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" ht="30.0" customHeight="1">
-      <c r="B58" s="4" t="s">
+      <c r="G57" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="30" customHeight="1">
+      <c r="B58" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="14" t="s">
         <v>187</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" ht="33.75" customHeight="1">
-      <c r="B59" s="4" t="s">
+      <c r="G58" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="33.75" customHeight="1">
+      <c r="B59" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="14" t="s">
         <v>190</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="4" t="s">
+      <c r="G59" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B60" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="14" t="s">
         <v>193</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" ht="31.5" customHeight="1">
+      <c r="G60" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="19.5" customHeight="1">
       <c r="B61" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="14" t="s">
         <v>196</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" ht="31.5" customHeight="1">
+      <c r="G61" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="31.5" customHeight="1">
       <c r="B62" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>199</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="33" customHeight="1">
+      <c r="B63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" ht="33.0" customHeight="1">
-      <c r="B63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" ht="31.5" customHeight="1">
+      <c r="F63" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="31.5" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C64" s="20" t="s">
         <v>205</v>
       </c>
+      <c r="C64" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" ht="31.5" customHeight="1">
+      <c r="E64" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="31.5" customHeight="1">
       <c r="B65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" ht="31.5" customHeight="1">
+      <c r="F65" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="31.5" customHeight="1">
       <c r="B66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" ht="32.25" customHeight="1">
+      <c r="E66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="32.25" customHeight="1">
       <c r="B67" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="17" t="s">
         <v>215</v>
       </c>
+      <c r="C67" s="24" t="s">
+        <v>216</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" ht="32.25" customHeight="1">
+      <c r="E67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="32.25" customHeight="1">
       <c r="B68" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="18" t="s">
+      <c r="C68" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="D68" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" ht="31.5" customHeight="1">
+      <c r="F68" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="22.5" customHeight="1">
       <c r="B69" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C69" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F69" s="18" t="s">
+      <c r="C69" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" ht="31.5" customHeight="1">
+      <c r="D69" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="31.5" customHeight="1">
       <c r="B70" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="21" t="s">
+      <c r="C70" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B72" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" ht="32.25" customHeight="1">
-      <c r="B71" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="F72" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B73" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" ht="26.25" customHeight="1">
-      <c r="B72" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" ht="32.25" customHeight="1">
-      <c r="B73" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" ht="31.5" customHeight="1">
+      <c r="F73" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="31.5" customHeight="1">
       <c r="B74" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="18" t="s">
+      <c r="C74" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="D74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+      <c r="G74" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="33.75" customHeight="1">
       <c r="B75" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F75" s="18" t="s">
+      <c r="D75" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" ht="32.25" customHeight="1">
+      <c r="G75" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="32.25" customHeight="1">
       <c r="B76" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="18" t="s">
+      <c r="D76" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" ht="31.5" customHeight="1">
+      <c r="G76" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="31.5" customHeight="1">
       <c r="B77" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" s="18" t="s">
+      <c r="D77" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" ht="30.75" customHeight="1">
+      <c r="G77" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="30.75" customHeight="1">
       <c r="B78" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E78" s="18" t="s">
+      <c r="D78" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B79" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B80" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="28.5" customHeight="1">
+      <c r="B81" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B82" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" ht="30.75" customHeight="1">
-      <c r="B80" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" ht="28.5" customHeight="1">
-      <c r="B81" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F81" s="18" t="s">
+      <c r="F82" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B83" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" ht="30.75" customHeight="1">
-      <c r="B82" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" ht="30.75" customHeight="1">
-      <c r="B83" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" ht="30.0" customHeight="1">
+      <c r="G83" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="30" customHeight="1">
       <c r="B84" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D84" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F84" s="18" t="s">
+      <c r="D84" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" ht="30.0" customHeight="1">
+      <c r="G84" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="30" customHeight="1">
       <c r="B85" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D85" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F85" s="18" t="s">
+      <c r="D85" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" ht="31.5" customHeight="1">
+      <c r="G85" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="31.5" customHeight="1">
       <c r="B86" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D86" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="18" t="s">
+      <c r="D86" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="G86" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="30" customHeight="1">
+      <c r="B87" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" ht="30.0" customHeight="1">
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="D87" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="18" t="s">
+      <c r="G87" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="29.25" customHeight="1">
+      <c r="B88" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" ht="29.25" customHeight="1">
-      <c r="B88" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="20" t="s">
+      <c r="F88" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="F88" s="18" t="s">
+      <c r="G88" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B89" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G88" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" ht="30.75" customHeight="1">
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="D89" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D89" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="18" t="s">
+      <c r="G89" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="31.5" customHeight="1">
+      <c r="B90" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="30" customHeight="1">
+      <c r="B91" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="28.5" customHeight="1">
+      <c r="B92" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="33.75" customHeight="1">
+      <c r="B93" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B94" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="27.75" customHeight="1">
+      <c r="B95" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F89" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" ht="31.5" customHeight="1">
-      <c r="B90" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" s="18" t="s">
+      <c r="F95" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="33.75" customHeight="1">
+      <c r="B96" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="45" customHeight="1">
+      <c r="B97" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B98" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="30" customHeight="1">
+      <c r="B99" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F90" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" ht="30.0" customHeight="1">
-      <c r="B91" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E91" s="18" t="s">
+      <c r="F99" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="30" customHeight="1">
+      <c r="B100" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="45" customHeight="1">
+      <c r="B101" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="29.25" customHeight="1">
+      <c r="B102" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="36" customHeight="1">
+      <c r="B103" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="28.5" customHeight="1">
+      <c r="B104" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="30" customHeight="1">
+      <c r="B105" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" ht="28.5" customHeight="1">
-      <c r="B92" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E92" s="18" t="s">
+      <c r="F105" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="30" customHeight="1">
+      <c r="B106" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="33" customHeight="1">
+      <c r="B107" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" ht="33.75" customHeight="1">
-      <c r="B93" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" ht="33.0" customHeight="1">
-      <c r="B94" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" ht="27.75" customHeight="1">
-      <c r="B95" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" ht="33.75" customHeight="1">
-      <c r="B96" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="31" t="s">
+      <c r="F107" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="30" customHeight="1">
+      <c r="B108" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F96" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" ht="34.5" customHeight="1">
-      <c r="B97" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E97" s="31" t="s">
+      <c r="F108" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="30" customHeight="1">
+      <c r="B109" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F97" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" ht="33.75" customHeight="1">
-      <c r="B98" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" ht="42.0" customHeight="1">
-      <c r="B99" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" ht="46.5" customHeight="1">
-      <c r="B100" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" ht="45.0" customHeight="1">
-      <c r="B101" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" ht="29.25" customHeight="1">
-      <c r="B102" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" ht="33.0" customHeight="1">
-      <c r="B103" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" ht="28.5" customHeight="1">
-      <c r="B104" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" ht="29.25" customHeight="1">
-      <c r="B105" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F105" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" ht="30.0" customHeight="1">
-      <c r="B106" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" ht="30.0" customHeight="1">
-      <c r="B108" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" ht="30.0" customHeight="1">
-      <c r="B109" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C109" s="20" t="s">
+      <c r="F109" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D109" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" ht="32.25" customHeight="1">
+      <c r="G109" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="32.25" customHeight="1">
       <c r="B110" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D110" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="18" t="s">
+      <c r="D110" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F110" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="G110" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" ht="33.75" customHeight="1">
+      <c r="G110" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="33.75" customHeight="1">
       <c r="B111" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D111" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="18" t="s">
+      <c r="D111" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="G111" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" ht="30.0" customHeight="1">
+      <c r="G111" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="30" customHeight="1">
       <c r="B112" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="D112" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" s="18" t="s">
+      <c r="D112" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F112" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="G112" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" ht="29.25" customHeight="1">
+      <c r="G112" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="29.25" customHeight="1">
       <c r="B113" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="D113" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" s="18" t="s">
+      <c r="D113" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F113" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="G113" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" ht="30.75" customHeight="1">
+      <c r="G113" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="30.75" customHeight="1">
       <c r="B114" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="D114" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="18" t="s">
+      <c r="D114" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="G114" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" ht="30.75" customHeight="1">
+      <c r="G114" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="30.75" customHeight="1">
       <c r="B115" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D115" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F115" s="18" t="s">
+      <c r="D115" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="G115" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" ht="28.5" customHeight="1">
+      <c r="G115" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="28.5" customHeight="1">
       <c r="B116" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D116" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" s="18" t="s">
+      <c r="D116" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="F116" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="G116" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" ht="29.25" customHeight="1">
+      <c r="G116" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="29.25" customHeight="1">
       <c r="B117" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="D117" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E117" s="18" t="s">
+      <c r="D117" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F117" s="18" t="s">
+      <c r="F117" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="G117" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" ht="30.0" customHeight="1">
+      <c r="G117" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="30" customHeight="1">
       <c r="B118" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="D118" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E118" s="18" t="s">
+      <c r="D118" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F118" s="18" t="s">
+      <c r="F118" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="G118" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" ht="43.5" customHeight="1">
+      <c r="G118" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="27.75" customHeight="1">
       <c r="B119" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D119" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F119" s="18" t="s">
+      <c r="D119" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="G119" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" ht="30.0" customHeight="1">
+      <c r="G119" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="30" customHeight="1">
       <c r="B120" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="D120" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E120" s="18" t="s">
+      <c r="D120" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F120" s="18" t="s">
+      <c r="F120" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="G120" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" ht="33.75" customHeight="1">
+      <c r="G120" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="33.75" customHeight="1">
       <c r="B121" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D121" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="18" t="s">
+      <c r="D121" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="G121" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" ht="45.0" customHeight="1">
+      <c r="G121" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="27" customHeight="1">
       <c r="B122" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D122" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F122" s="18" t="s">
+      <c r="D122" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="G122" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" ht="31.5" customHeight="1">
-      <c r="B123" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F123" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" ht="32.25" customHeight="1">
-      <c r="B124" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F124" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" ht="31.5" customHeight="1">
-      <c r="B125" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+      <c r="G122" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="31.5" customHeight="1"/>
+    <row r="124" spans="2:7" ht="32.25" customHeight="1"/>
+    <row r="125" spans="2:7" ht="31.5" customHeight="1"/>
+    <row r="126" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="127" spans="2:7" ht="18" customHeight="1"/>
+    <row r="128" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -5032,9 +4965,7 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>